--- a/Tier System/stable version/v01-01/4DN-Metadata Tier System_2019-9-25_v01-01.xlsx
+++ b/Tier System/stable version/v01-01/4DN-Metadata Tier System_2019-9-25_v01-01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10510"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/strambc/Documents/GitHub/MicroscopyMetadata4DNGuidelines/Tier System/v01-01/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/strambc/Documents/GitHub/MicroscopyMetadata4DNGuidelines/Tier System/stable version/v01-01/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E2BA4E2-A7AD-0141-AFC5-42C058697156}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9BD4136-FE21-FD49-B7E7-3C56D953893F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25960" yWindow="-8000" windowWidth="37660" windowHeight="23780" tabRatio="914" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28180" windowHeight="16480" tabRatio="914" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tier system_v01-00" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Tier system_v01-00_MINIMAL" sheetId="6" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'Tier system_v01-00_FORMATTED'!$A$2:$I$7</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'Tier system_v01-00_FORMATTED'!$A$2:$L$7</definedName>
   </definedNames>
   <calcPr calcId="140000"/>
   <extLst>
@@ -87,9 +87,6 @@
     <t>recommended</t>
   </si>
   <si>
-    <t>Life Cells Imaging</t>
-  </si>
-  <si>
     <t>Tracking of intracellular dynamics</t>
   </si>
   <si>
@@ -97,9 +94,6 @@
   </si>
   <si>
     <t>Full reproducibility of microscopic set up and image acquisition</t>
-  </si>
-  <si>
-    <t>ID</t>
   </si>
   <si>
     <t>Development of novel unproved technology or of new gold-standard; full reproducibility ofmicroscopy set up and image acquisition settings</t>
@@ -227,12 +221,18 @@
   <si>
     <t>Technical Development</t>
   </si>
+  <si>
+    <t>Tier Nr.</t>
+  </si>
+  <si>
+    <t>Live Cell Imaging</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="34" x14ac:knownFonts="1">
+  <fonts count="39" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -415,6 +415,36 @@
       <sz val="16"/>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <color rgb="FF274E13"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <color rgb="FFED7D31"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <color rgb="FF713A0F"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <color rgb="FF1B3641"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -766,18 +796,9 @@
     <xf numFmtId="0" fontId="13" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -833,46 +854,61 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
@@ -922,26 +958,20 @@
     <xf numFmtId="0" fontId="11" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="37" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="35">
@@ -1322,7 +1352,7 @@
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="50" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C3" sqref="C3:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="29" x14ac:dyDescent="0.35"/>
@@ -1341,221 +1371,221 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="J1" s="59" t="s">
+      <c r="J1" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
     </row>
     <row r="2" spans="1:12" s="5" customFormat="1" ht="80" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="38" t="s">
+      <c r="A2" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="39" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="H2" s="39" t="s">
+      <c r="H2" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="L2" s="38" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="4" customFormat="1" ht="127" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="58" t="s">
         <v>25</v>
-      </c>
-      <c r="I2" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="J2" s="39" t="s">
-        <v>36</v>
-      </c>
-      <c r="K2" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="L2" s="41" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" s="4" customFormat="1" ht="127" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="56" t="s">
-        <v>27</v>
       </c>
       <c r="B3" s="16">
         <v>1</v>
       </c>
-      <c r="C3" s="42" t="s">
+      <c r="C3" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="43" t="s">
+      <c r="D3" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="43" t="s">
+      <c r="E3" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="43" t="s">
+      <c r="F3" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="43" t="s">
+      <c r="G3" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="43" t="s">
+      <c r="H3" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="43" t="s">
+      <c r="I3" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="44" t="s">
-        <v>35</v>
-      </c>
-      <c r="K3" s="44" t="s">
-        <v>41</v>
-      </c>
-      <c r="L3" s="45" t="s">
+      <c r="J3" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" s="40" t="s">
         <v>39</v>
       </c>
+      <c r="L3" s="41" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="4" spans="1:12" s="4" customFormat="1" ht="127" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="57"/>
+      <c r="A4" s="59"/>
       <c r="B4" s="18">
         <v>2</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="46" t="s">
+      <c r="D4" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="46" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" s="46" t="s">
+      <c r="E4" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="46" t="s">
+      <c r="G4" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="46" t="s">
+      <c r="H4" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="46" t="s">
+      <c r="I4" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="46" t="s">
+      <c r="J4" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="47" t="s">
-        <v>42</v>
-      </c>
-      <c r="L4" s="48" t="s">
+      <c r="K4" s="43" t="s">
         <v>40</v>
       </c>
+      <c r="L4" s="44" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="5" spans="1:12" s="4" customFormat="1" ht="127" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="58" t="s">
-        <v>28</v>
+      <c r="A5" s="60" t="s">
+        <v>26</v>
       </c>
       <c r="B5" s="6">
         <v>3</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="49" t="s">
+      <c r="D5" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="49" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" s="49" t="s">
-        <v>50</v>
-      </c>
-      <c r="G5" s="49" t="s">
-        <v>33</v>
-      </c>
-      <c r="H5" s="49" t="s">
+      <c r="E5" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="49" t="s">
+      <c r="I5" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="49"/>
-      <c r="K5" s="60" t="s">
-        <v>48</v>
-      </c>
-      <c r="L5" s="61"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="62" t="s">
+        <v>46</v>
+      </c>
+      <c r="L5" s="63"/>
     </row>
     <row r="6" spans="1:12" s="4" customFormat="1" ht="127" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="58"/>
+      <c r="A6" s="60"/>
       <c r="B6" s="7">
         <v>4</v>
       </c>
-      <c r="C6" s="50" t="s">
+      <c r="C6" s="77" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="51" t="s">
+      <c r="E6" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="51" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="51" t="s">
-        <v>51</v>
-      </c>
-      <c r="G6" s="51" t="s">
-        <v>34</v>
-      </c>
-      <c r="H6" s="51" t="s">
-        <v>20</v>
-      </c>
-      <c r="I6" s="51" t="s">
-        <v>20</v>
-      </c>
-      <c r="J6" s="52" t="s">
+      <c r="I6" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="K6" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="K6" s="52" t="s">
-        <v>45</v>
-      </c>
-      <c r="L6" s="53" t="s">
-        <v>44</v>
+      <c r="L6" s="48" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="4" customFormat="1" ht="127" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="57"/>
+      <c r="A7" s="59"/>
       <c r="B7" s="8">
         <v>5</v>
       </c>
-      <c r="C7" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="D7" s="54" t="s">
+      <c r="C7" s="78" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="54" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="54" t="s">
-        <v>49</v>
-      </c>
-      <c r="G7" s="63" t="s">
+      <c r="F7" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="H7" s="64"/>
-      <c r="I7" s="65"/>
-      <c r="J7" s="62" t="s">
-        <v>46</v>
-      </c>
-      <c r="K7" s="62"/>
-      <c r="L7" s="62"/>
+      <c r="G7" s="65" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" s="66"/>
+      <c r="I7" s="67"/>
+      <c r="J7" s="64" t="s">
+        <v>44</v>
+      </c>
+      <c r="K7" s="64"/>
+      <c r="L7" s="64"/>
     </row>
     <row r="8" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="3"/>
@@ -1590,148 +1620,148 @@
   </sheetPr>
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="50" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" zoomScale="64" zoomScaleNormal="75" zoomScalePageLayoutView="50" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="29" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="17.6640625" style="14" customWidth="1"/>
-    <col min="2" max="2" width="6" style="1" customWidth="1"/>
-    <col min="3" max="3" width="31.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="37.1640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="51.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="31.33203125" style="1" customWidth="1"/>
-    <col min="7" max="8" width="25.33203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="25.33203125" customWidth="1"/>
-    <col min="10" max="10" width="26.33203125" customWidth="1"/>
-    <col min="11" max="11" width="33.1640625" customWidth="1"/>
-    <col min="12" max="12" width="43.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8" style="1" customWidth="1"/>
+    <col min="3" max="3" width="28.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="32" style="1" customWidth="1"/>
+    <col min="5" max="5" width="40.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="26.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="24" customWidth="1"/>
+    <col min="8" max="8" width="33.1640625" customWidth="1"/>
+    <col min="9" max="9" width="36.1640625" style="1" customWidth="1"/>
+    <col min="10" max="11" width="25.33203125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="25.33203125" customWidth="1"/>
     <col min="13" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="J1" s="59" t="s">
+    <row r="1" spans="1:12" ht="37" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G1" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-    </row>
-    <row r="2" spans="1:12" s="5" customFormat="1" ht="80" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="75" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="76" t="s">
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+    </row>
+    <row r="2" spans="1:12" s="5" customFormat="1" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="55" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="55" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="55" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="55" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="55" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="76" t="s">
+      <c r="K2" s="55" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="57" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="4" customFormat="1" ht="113" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="60" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="51">
         <v>1</v>
       </c>
-      <c r="D2" s="76" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="76" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="76" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="76" t="s">
-        <v>24</v>
-      </c>
-      <c r="H2" s="76" t="s">
-        <v>25</v>
-      </c>
-      <c r="I2" s="78" t="s">
-        <v>32</v>
-      </c>
-      <c r="J2" s="76" t="s">
-        <v>36</v>
-      </c>
-      <c r="K2" s="76" t="s">
+      <c r="C3" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="53" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="L2" s="77" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" s="4" customFormat="1" ht="113" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="58" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="72">
-        <v>1</v>
-      </c>
-      <c r="C3" s="73" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="74" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="74" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="74" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="74" t="s">
+      <c r="J3" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="74" t="s">
+      <c r="K3" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="74" t="s">
+      <c r="L3" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="K3" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="L3" s="26" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" s="4" customFormat="1" ht="157" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="57"/>
+    </row>
+    <row r="4" spans="1:12" s="4" customFormat="1" ht="164" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="59"/>
       <c r="B4" s="18">
         <v>2</v>
       </c>
       <c r="C4" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" s="27" t="s">
+      <c r="E4" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="27" t="s">
+      <c r="G4" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="I4" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="J4" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="27" t="s">
+      <c r="K4" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="27" t="s">
+      <c r="L4" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="K4" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="L4" s="30" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" s="4" customFormat="1" ht="139" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="58" t="s">
-        <v>28</v>
+    </row>
+    <row r="5" spans="1:12" s="4" customFormat="1" ht="181" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="60" t="s">
+        <v>26</v>
       </c>
       <c r="B5" s="6">
         <v>3</v>
@@ -1739,111 +1769,111 @@
       <c r="C5" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="G5" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="H5" s="31" t="s">
+      <c r="E5" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" s="29"/>
+      <c r="H5" s="68" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" s="69"/>
+      <c r="J5" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="K5" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="31" t="s">
+      <c r="L5" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="32"/>
-      <c r="K5" s="66" t="s">
-        <v>48</v>
-      </c>
-      <c r="L5" s="67"/>
-    </row>
-    <row r="6" spans="1:12" s="4" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="58"/>
+    </row>
+    <row r="6" spans="1:12" s="4" customFormat="1" ht="150" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="60"/>
       <c r="B6" s="7">
         <v>4</v>
       </c>
       <c r="C6" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="33" t="s">
+      <c r="E6" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="I6" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="J6" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="K6" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="G6" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="H6" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="I6" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="J6" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="K6" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="L6" s="35" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" s="4" customFormat="1" ht="139" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="57"/>
+      <c r="L6" s="30" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="4" customFormat="1" ht="164" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="59"/>
       <c r="B7" s="8">
         <v>5</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="D7" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="36" t="s">
-        <v>49</v>
-      </c>
-      <c r="G7" s="68" t="s">
+      <c r="F7" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="H7" s="69"/>
-      <c r="I7" s="70"/>
-      <c r="J7" s="71" t="s">
-        <v>46</v>
+      <c r="G7" s="73" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" s="73"/>
+      <c r="I7" s="73"/>
+      <c r="J7" s="70" t="s">
+        <v>45</v>
       </c>
       <c r="K7" s="71"/>
-      <c r="L7" s="71"/>
+      <c r="L7" s="72"/>
     </row>
     <row r="8" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
-      <c r="L8" s="2"/>
+      <c r="I8" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="G1:I1"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A5:A7"/>
-    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J7:L7"/>
     <mergeCell ref="G7:I7"/>
-    <mergeCell ref="J7:L7"/>
   </mergeCells>
   <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup scale="45" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup scale="34" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1860,13 +1890,13 @@
   <dimension ref="A2:I8"/>
   <sheetViews>
     <sheetView zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="50" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="29" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="17.6640625" style="14" customWidth="1"/>
-    <col min="2" max="2" width="6" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="29" style="1" customWidth="1"/>
     <col min="4" max="4" width="37.1640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="49.5" style="1" customWidth="1"/>
@@ -1877,10 +1907,10 @@
   <sheetData>
     <row r="2" spans="1:9" s="5" customFormat="1" ht="80" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>1</v>
@@ -1895,18 +1925,18 @@
         <v>4</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H2" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="4" customFormat="1" ht="117" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="58" t="s">
         <v>25</v>
-      </c>
-      <c r="I2" s="21" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" s="4" customFormat="1" ht="117" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="56" t="s">
-        <v>27</v>
       </c>
       <c r="B3" s="16">
         <v>1</v>
@@ -1914,55 +1944,55 @@
       <c r="C3" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="E3" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="24" t="s">
+      <c r="F3" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="24" t="s">
+      <c r="G3" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="24" t="s">
+      <c r="H3" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="24" t="s">
+      <c r="I3" s="21" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="4" customFormat="1" ht="135" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="57"/>
+      <c r="A4" s="59"/>
       <c r="B4" s="18">
         <v>2</v>
       </c>
       <c r="C4" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" s="27" t="s">
+      <c r="E4" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="27" t="s">
+      <c r="G4" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="27" t="s">
+      <c r="H4" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="27" t="s">
+      <c r="I4" s="24" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:9" s="4" customFormat="1" ht="127" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="58" t="s">
-        <v>28</v>
+      <c r="A5" s="60" t="s">
+        <v>26</v>
       </c>
       <c r="B5" s="6">
         <v>3</v>
@@ -1970,74 +2000,74 @@
       <c r="C5" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="G5" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="H5" s="31" t="s">
+      <c r="E5" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="31" t="s">
+      <c r="I5" s="28" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="4" customFormat="1" ht="125" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="58"/>
+      <c r="A6" s="60"/>
       <c r="B6" s="7">
         <v>4</v>
       </c>
       <c r="C6" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="33" t="s">
+      <c r="E6" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="G6" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="H6" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="I6" s="33" t="s">
-        <v>20</v>
+      <c r="I6" s="30" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="4" customFormat="1" ht="121" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="57"/>
+      <c r="A7" s="59"/>
       <c r="B7" s="8">
         <v>5</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="D7" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="36" t="s">
-        <v>49</v>
-      </c>
-      <c r="G7" s="68" t="s">
+      <c r="F7" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="H7" s="69"/>
-      <c r="I7" s="70"/>
+      <c r="G7" s="70" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" s="71"/>
+      <c r="I7" s="72"/>
     </row>
     <row r="8" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="3"/>
@@ -2068,13 +2098,13 @@
   <dimension ref="A2:G8"/>
   <sheetViews>
     <sheetView zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="50" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="29" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="17.6640625" style="14" customWidth="1"/>
-    <col min="2" max="2" width="6" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="29" style="1" customWidth="1"/>
     <col min="4" max="4" width="37.1640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="49.5" style="1" customWidth="1"/>
@@ -2085,10 +2115,10 @@
   <sheetData>
     <row r="2" spans="1:7" s="5" customFormat="1" ht="58" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>1</v>
@@ -2100,15 +2130,15 @@
         <v>3</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="4" customFormat="1" ht="117" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="56" t="s">
-        <v>27</v>
+      <c r="A3" s="58" t="s">
+        <v>25</v>
       </c>
       <c r="B3" s="16">
         <v>1</v>
@@ -2116,43 +2146,43 @@
       <c r="C3" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="E3" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="24" t="s">
+      <c r="F3" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="24" t="s">
-        <v>53</v>
+      <c r="G3" s="21" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="4" customFormat="1" ht="135" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="57"/>
+      <c r="A4" s="59"/>
       <c r="B4" s="18">
         <v>2</v>
       </c>
       <c r="C4" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" s="27" t="s">
+      <c r="E4" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="27" t="s">
-        <v>54</v>
+      <c r="G4" s="24" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="4" customFormat="1" ht="127" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="58" t="s">
-        <v>28</v>
+      <c r="A5" s="60" t="s">
+        <v>26</v>
       </c>
       <c r="B5" s="6">
         <v>3</v>
@@ -2160,59 +2190,59 @@
       <c r="C5" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="G5" s="31" t="s">
-        <v>56</v>
+      <c r="E5" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" s="28" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1" ht="125" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="58"/>
+      <c r="A6" s="60"/>
       <c r="B6" s="7">
         <v>4</v>
       </c>
       <c r="C6" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="G6" s="33" t="s">
-        <v>34</v>
+      <c r="E6" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" s="30" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="4" customFormat="1" ht="121" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="57"/>
+      <c r="A7" s="59"/>
       <c r="B7" s="8">
         <v>5</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="D7" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="36" t="s">
-        <v>49</v>
-      </c>
-      <c r="G7" s="55" t="s">
+      <c r="F7" s="33" t="s">
         <v>47</v>
+      </c>
+      <c r="G7" s="50" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.35">
